--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:13 AM</t>
+    <t>Saturday, 12 July, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -89,10 +113,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Saturday, 12 July, 2025 10:17 AM</t>
+    <t>Saturday, 12 July, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +826,119 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>31.710000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>86.549999999999997</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:20 AM</t>
+    <t>Saturday, 12 July, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:54 AM</t>
+    <t>Saturday, 12 July, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -59,7 +77,13 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -86,12 +110,21 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -104,16 +137,13 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:02 AM</t>
+    <t>Saturday, 12 July, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,15 +823,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -813,20 +843,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -859,7 +889,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -892,53 +922,152 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>86.549999999999997</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>142.40000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1101,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -62,15 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -131,19 +143,28 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:10 AM</t>
+    <t>Saturday, 12 July, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -834,7 +855,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -843,14 +864,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -860,11 +881,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -876,14 +897,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -966,7 +987,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -982,7 +1003,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -992,14 +1013,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,20 +1029,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1032,42 +1053,108 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>142.40000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>189.40000000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1203,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:13 AM</t>
+    <t>Saturday, 12 July, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -143,12 +155,30 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>بلسم MINK</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -164,7 +194,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:30 AM</t>
+    <t>Saturday, 12 July, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1039,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1036,7 +1066,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1046,14 +1076,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1062,20 +1092,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1086,7 +1116,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1102,59 +1132,158 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>189.40000000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>51</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>38</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>38</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>405.39999999999998</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1342,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>1:1</t>
+    <t>0:0</t>
   </si>
   <si>
     <t>0</t>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -194,7 +191,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:54 AM</t>
+    <t>Saturday, 12 July, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1030,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1043,11 +1040,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1059,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,11 +1073,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1092,14 +1089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1109,11 +1106,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1125,14 +1122,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,11 +1139,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1158,14 +1155,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,11 +1172,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1191,14 +1188,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,14 +1205,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,14 +1221,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1241,11 +1238,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c t="s" r="A21" s="14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1267,13 +1264,13 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c t="s" r="G21" s="15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c t="s" r="K21" s="17">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 11:55 AM</t>
+    <t>Saturday, 12 July, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:01 PM</t>
+    <t>Saturday, 12 July, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:05 PM</t>
+    <t>Saturday, 12 July, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -68,18 +83,12 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
     <t>43.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -164,6 +182,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بلسم MINK</t>
   </si>
   <si>
@@ -191,7 +221,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:11 PM</t>
+    <t>Saturday, 12 July, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -849,7 +879,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -858,31 +888,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,20 +921,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -915,7 +945,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -931,13 +961,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -948,7 +978,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -964,24 +994,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,31 +1020,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1047,7 +1077,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1063,24 +1093,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,31 +1119,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,31 +1152,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,14 +1185,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1172,14 +1202,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,14 +1218,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1212,7 +1242,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1228,7 +1258,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1238,49 +1268,148 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>405.39999999999998</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>18</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>815.39999999999998</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1483,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -221,7 +221,19 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:12 PM</t>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 12 July, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1378,38 +1390,71 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>815.39999999999998</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>70</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>71</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>72</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>845.39999999999998</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>75</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>76</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1543,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:13 PM</t>
+    <t>Saturday, 12 July, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -233,7 +242,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:19 PM</t>
+    <t>Saturday, 12 July, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,13 +1147,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1171,21 +1180,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1221,7 +1230,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1237,7 +1246,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1247,14 +1256,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,11 +1289,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1296,20 +1305,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1353,7 +1362,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,7 +1395,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1402,7 +1411,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1412,49 +1421,82 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>845.39999999999998</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>74</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>75</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>954.39999999999998</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>78</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>79</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1548,10 +1590,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:20 PM</t>
+    <t>Saturday, 12 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -59,6 +59,30 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -74,9 +98,6 @@
     <t>14.8500</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -158,6 +179,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -182,9 +209,6 @@
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -212,6 +236,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -233,13 +266,19 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t>Saturday, 12 July, 2025 12:34 PM</t>
@@ -922,18 +961,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -942,14 +981,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,14 +998,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -975,20 +1014,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -999,7 +1038,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1015,7 +1054,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1025,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1041,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1065,7 +1104,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1081,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1091,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1131,7 +1170,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1147,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1173,28 +1212,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1206,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1246,13 +1285,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1263,7 +1302,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1279,7 +1318,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,14 +1328,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1322,11 +1361,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1338,31 +1377,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1371,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,28 +1443,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1437,66 +1476,231 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>954.39999999999998</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>26</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>37</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>25</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>26</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>79</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>25</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>26</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>76</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>26</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>85</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>25</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>26</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1158.03</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1595,10 +1799,35 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 12:34 PM</t>
+    <t>Saturday, 12 July, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>54.5000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -164,9 +173,6 @@
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
-    <t>109.00</t>
-  </si>
-  <si>
     <t>109.0000</t>
   </si>
   <si>
@@ -281,7 +287,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:08 PM</t>
+    <t>Saturday, 12 July, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1236,7 +1242,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,7 +1258,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1285,21 +1291,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1311,31 +1317,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1351,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1427,14 +1433,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1476,28 +1482,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1509,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1526,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1542,14 +1548,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,14 +1565,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,7 +1581,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1592,14 +1598,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,14 +1614,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1625,11 +1631,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1641,14 +1647,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1658,49 +1664,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1158.03</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>25</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>26</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1212.53</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1863,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -101,13 +101,16 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>215.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
@@ -170,6 +173,18 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -266,7 +281,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -287,7 +305,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:27 PM</t>
+    <t>Saturday, 12 July, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1077,7 +1095,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1086,7 +1104,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1103,11 +1121,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>17</v>
@@ -1119,7 +1137,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1136,11 +1154,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>17</v>
@@ -1152,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,11 +1187,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>17</v>
@@ -1185,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1202,11 +1220,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1218,7 +1236,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1235,11 +1253,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1251,7 +1269,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1268,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1284,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1301,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1317,28 +1335,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1350,31 +1368,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1383,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1499,11 +1517,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1515,28 +1533,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1548,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,11 +1583,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1581,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1598,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1614,7 +1632,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1631,14 +1649,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1647,14 +1665,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1664,14 +1682,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1697,49 +1715,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1212.53</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>92</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>93</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>94</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>25</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>26</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1459.53</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1919,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -101,16 +113,16 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>215.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
@@ -209,9 +221,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -272,7 +281,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -281,10 +293,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -305,7 +314,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:32 PM</t>
+    <t>Saturday, 12 July, 2025 1:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,15 +1060,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>17</v>
@@ -1071,20 +1080,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1095,7 +1104,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1137,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1137,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,11 +1163,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>17</v>
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1243,7 +1252,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,11 +1262,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1342,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,11 +1361,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1368,28 +1377,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1401,31 +1410,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,7 +1483,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1491,7 +1500,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1507,7 +1516,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1524,7 +1533,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1540,7 +1549,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1566,20 +1575,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1606,17 +1615,17 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1639,24 +1648,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,13 +1681,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1705,13 +1714,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1722,7 +1731,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1738,13 +1747,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1759,38 +1768,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1459.53</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>98</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>29</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>30</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>99</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1430.53</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +1966,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -305,16 +305,34 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:45 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>Saturday, 12 July, 2025 1:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,38 +1819,137 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1430.53</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>101</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>102</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>30</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>103</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>29</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>30</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>29</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>30</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>99</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1590.53</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2088,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:46 PM</t>
+    <t>Saturday, 12 July, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -332,7 +332,19 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:53 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 12 July, 2025 1:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1918,38 +1930,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1590.53</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>107</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>108</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1625.53</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2148,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 1:54 PM</t>
+    <t>Saturday, 12 July, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -71,12 +71,21 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -293,7 +299,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -344,7 +350,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 4:02 PM</t>
+    <t>Saturday, 12 July, 2025 4:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,7 +1090,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,11 +1100,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>17</v>
@@ -1110,28 +1116,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>17</v>
@@ -1143,31 +1149,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1176,14 +1182,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1193,14 +1199,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1216,7 +1222,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,11 +1232,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>17</v>
@@ -1242,14 +1248,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,11 +1265,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1275,14 +1281,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1292,11 +1298,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1308,14 +1314,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1325,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1341,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,14 +1364,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,14 +1380,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,11 +1397,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1407,14 +1413,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1447,21 +1453,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1473,31 +1479,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1513,7 +1519,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,14 +1529,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1539,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,14 +1595,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1628,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1638,28 +1644,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1671,28 +1677,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1704,31 +1710,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,31 +1743,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,31 +1776,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,28 +1809,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1836,31 +1842,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,31 +1875,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1909,21 +1915,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1935,66 +1941,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1625.53</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>110</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>33</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>111</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1641.01</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>113</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>114</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2192,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -182,6 +194,18 @@
     <t>54.5000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -254,9 +278,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -314,12 +335,6 @@
     <t>فرش اسنان اورال بي</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -350,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 4:29 PM</t>
+    <t>Saturday, 12 July, 2025 5:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1364,14 +1379,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1380,7 +1395,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1397,14 +1412,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1413,28 +1428,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,11 +1478,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1479,28 +1494,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1512,7 +1527,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1529,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,28 +1560,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,11 +1610,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,11 +1643,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,28 +1692,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1710,28 +1725,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1743,7 +1758,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1783,7 +1798,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1793,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1816,7 +1831,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1833,7 +1848,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,7 +1857,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1896,10 +1911,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,7 +1923,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1925,11 +1940,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1948,7 +1963,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1991,7 +2006,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2002,38 +2017,104 @@
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1641.01</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>113</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>32</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>33</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>63</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>114</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>115</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>33</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>116</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1741.6500000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>118</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>119</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>120</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2197,10 +2278,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:03 PM</t>
+    <t>Saturday, 12 July, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -65,12 +77,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -140,6 +143,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
@@ -254,7 +269,7 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -365,7 +380,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:06 PM</t>
+    <t>Saturday, 12 July, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1038,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1032,14 +1047,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1056,7 +1071,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1082,14 +1097,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1098,14 +1113,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1115,14 +1130,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1131,14 +1146,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1148,14 +1163,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1164,31 +1179,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1197,31 +1212,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1230,14 +1245,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,14 +1262,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1263,14 +1278,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,14 +1295,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,14 +1311,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,14 +1328,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1329,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,14 +1361,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1377,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1394,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1395,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1412,14 +1427,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1428,31 +1443,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1461,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,14 +1493,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,31 +1509,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,7 +1542,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,20 +1575,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1584,7 +1599,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,7 +1615,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1633,13 +1648,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1650,7 +1665,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,7 +1681,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,31 +1773,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,31 +1806,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,31 +1839,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,31 +1872,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1905,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1938,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,20 +1971,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1977,10 +1992,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2029,24 +2044,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2055,66 +2070,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1741.6500000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>118</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>34</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>68</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>119</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>120</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>34</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>121</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1905.6500000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>123</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>124</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>125</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2288,10 +2369,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:15 PM</t>
+    <t>Saturday, 12 July, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -158,12 +167,6 @@
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -209,6 +212,15 @@
     <t>54.5000</t>
   </si>
   <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -263,9 +275,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -371,16 +395,13 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:17 PM</t>
+    <t>Saturday, 12 July, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1141,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,11 +1151,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1186,7 +1207,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,11 +1217,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1212,28 +1233,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1245,31 +1266,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1316,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1311,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,11 +1349,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1384,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,11 +1415,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,11 +1448,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1460,14 +1481,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,14 +1514,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,31 +1530,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,7 +1563,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1555,15 +1576,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1575,28 +1596,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,11 +1646,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1641,28 +1662,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1674,7 +1695,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,11 +1811,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1905,31 +1926,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,7 +1959,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1951,18 +1972,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,28 +1992,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2004,7 +2025,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2017,18 +2038,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,20 +2058,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2058,10 +2079,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,28 +2091,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2103,7 +2124,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2116,15 +2137,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2136,66 +2157,165 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1905.6500000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>124</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>37</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>123</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>124</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>126</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>37</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>72</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>127</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>92</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>37</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2065.6500000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>130</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>131</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>132</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2379,10 +2499,25 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t>بلسم MINK</t>
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1834,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1884,7 +1893,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1900,7 +1909,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1917,7 +1926,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1966,13 +1975,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1983,7 +1992,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,7 +2018,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2032,7 +2041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,7 +2067,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2115,7 +2124,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2223,7 +2232,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2273,49 +2282,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2065.6500000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>130</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>95</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>37</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>131</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>132</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2276.6500000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>133</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>134</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>135</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2514,10 +2556,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -155,13 +155,13 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>CYNCHOLINE 20CAPS.</t>
@@ -254,6 +254,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -410,7 +413,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:38 PM</t>
+    <t>Saturday, 12 July, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1398,7 +1401,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1711,7 +1714,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,14 +1724,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,28 +1740,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1770,31 +1773,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,14 +1839,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1856,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1869,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,14 +1955,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,14 +1988,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,31 +2004,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,7 +2103,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2117,14 +2120,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2206,7 +2209,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2216,14 +2219,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2249,14 +2252,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2265,7 +2268,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2282,11 +2285,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2305,7 +2308,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2315,49 +2318,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>131</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>96</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>37</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>132</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2276.6500000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>133</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2317.4899999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>134</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
         <v>135</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>136</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2561,10 +2597,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:39 PM</t>
+    <t>Saturday, 12 July, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:45 PM</t>
+    <t>Saturday, 12 July, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 5:54 PM</t>
+    <t>Saturday, 12 July, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:10 PM</t>
+    <t>Saturday, 12 July, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,21 +1294,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1311,31 +1320,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1344,14 +1353,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1361,14 +1370,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1377,14 +1386,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1394,14 +1403,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1410,14 +1419,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1427,14 +1436,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1460,11 +1469,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1476,14 +1485,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1493,11 +1502,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1526,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1588,7 +1597,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1599,7 +1608,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1615,21 +1624,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1641,20 +1650,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1681,7 +1690,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1773,24 +1782,24 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1813,24 +1822,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,14 +1865,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1912,7 +1921,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1962,7 +1971,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1978,7 +1987,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1995,7 +2004,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2011,7 +2020,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2028,7 +2037,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2044,13 +2053,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2061,7 +2070,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2077,17 +2086,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2110,24 +2119,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,7 +2145,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2149,18 +2158,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>117</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2176,13 +2185,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2193,7 +2202,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2209,21 +2218,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2235,31 +2244,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2275,24 +2284,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2301,7 +2310,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2314,15 +2323,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2334,66 +2343,99 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2317.4899999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>134</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>99</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>40</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>135</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>136</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2344.4899999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>137</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>138</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>139</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2602,10 +2644,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:12 PM</t>
+    <t>Saturday, 12 July, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -296,6 +314,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -326,12 +353,21 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8556:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>102.0000</t>
   </si>
   <si>
@@ -365,9 +401,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>8.0000</t>
   </si>
   <si>
@@ -416,13 +449,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 12 July, 2025 6:14 PM</t>
+    <t>Saturday, 12 July, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1723,7 +1750,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1760,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,24 +1842,24 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1855,7 +1882,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,28 +1908,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1914,7 +1941,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1954,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,11 +2024,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2070,7 +2097,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2086,13 +2113,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2103,7 +2130,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2125,15 +2152,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2145,31 +2172,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2244,14 +2271,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,11 +2288,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2310,7 +2337,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2393,49 +2420,181 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2344.4899999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>140</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>40</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>141</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>137</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>138</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>139</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>142</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>40</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>141</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>40</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>75</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>145</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>108</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>40</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>91</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2512.4899999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>146</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>147</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>148</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2649,10 +2808,30 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -413,7 +431,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -440,16 +461,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:17 PM</t>
+    <t>Saturday, 12 July, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,13 +1933,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1932,7 +1950,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1948,24 +1966,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2014,7 +2032,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2031,7 +2049,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2047,7 +2065,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2064,7 +2082,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2080,7 +2098,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,31 +2124,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2212,7 +2230,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,24 +2256,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2278,24 +2296,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2344,7 +2362,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2377,7 +2395,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2469,7 +2487,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2486,11 +2504,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2552,49 +2570,115 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>40</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>75</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>151</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>114</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>40</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>91</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2512.4899999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>146</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>147</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>148</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2709.3449999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>152</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>153</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>154</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2828,10 +2912,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:22 PM</t>
+    <t>Saturday, 12 July, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>54.5000</t>
   </si>
   <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
@@ -299,6 +308,15 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -332,6 +350,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -347,7 +374,7 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>130.0000</t>
+    <t>260.0000</t>
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
@@ -464,10 +491,19 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
+    <t>ملح انجليزي</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:26 PM</t>
+    <t>Saturday, 12 July, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1711,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1702,7 +1738,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,11 +1748,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1728,20 +1764,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1801,7 +1837,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1847,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1913,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,7 +1946,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1933,7 +1969,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1950,7 +1986,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1966,13 +2002,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1983,7 +2019,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1999,7 +2035,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2045,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,28 +2061,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,7 +2111,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2098,7 +2134,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2131,13 +2167,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2148,7 +2184,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2164,24 +2200,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,31 +2259,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2296,7 +2332,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2313,7 +2349,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2329,21 +2365,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2355,24 +2391,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2395,24 +2431,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,7 +2481,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,11 +2507,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2487,7 +2523,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2504,14 +2540,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2541,10 +2577,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2586,7 +2622,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2603,11 +2639,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2636,49 +2672,181 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2709.3449999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>152</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>153</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>154</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>40</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>157</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>40</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>78</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>150</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>40</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>161</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>163</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>123</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>40</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>94</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3175.3449999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>164</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>165</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>166</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2922,10 +3090,30 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -503,7 +503,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:27 PM</t>
+    <t>Saturday, 12 July, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -200,6 +212,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -314,9 +332,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -446,10 +461,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -503,7 +515,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:41 PM</t>
+    <t>Saturday, 12 July, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1590,7 +1602,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1649,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1672,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1755,7 +1767,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1771,21 +1783,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1797,28 +1809,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1830,20 +1842,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1870,7 +1882,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,11 +1958,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1962,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,7 +2064,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2068,13 +2080,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2085,7 +2097,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2101,7 +2113,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,13 +2146,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2167,7 +2179,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2193,7 +2205,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2206,15 +2218,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,31 +2337,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2408,14 +2420,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2448,7 +2460,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2464,21 +2476,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2490,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,7 +2535,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2573,14 +2585,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,7 +2634,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2662,7 +2674,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2728,7 +2740,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2794,7 +2806,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2804,49 +2816,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3175.3449999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>164</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>154</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>40</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>165</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>166</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>167</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>128</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>40</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>100</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3348.3449999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>168</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>169</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>170</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3110,10 +3188,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
@@ -1684,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,11 +1703,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,7 +1809,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,7 +1831,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1849,7 +1858,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,11 +1868,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1875,20 +1884,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1915,7 +1924,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1948,7 +1957,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,7 +2066,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2080,7 +2089,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2097,7 +2106,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2113,7 +2122,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2127,10 +2136,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,7 +2148,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2152,18 +2161,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2179,24 +2188,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2262,7 +2271,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2278,13 +2287,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2295,7 +2304,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2311,13 +2320,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2344,13 +2353,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2361,7 +2370,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2377,21 +2386,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>47</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2427,7 +2436,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2486,11 +2495,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2542,13 +2551,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2559,7 +2568,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2575,7 +2584,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,7 +2594,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2608,7 +2617,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,7 +2643,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2799,7 +2808,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2872,7 +2881,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2882,49 +2891,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3348.3449999999998</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>168</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>169</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>170</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>131</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>40</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>103</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3382.3449999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>171</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>172</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>173</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3198,10 +3240,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -239,6 +239,21 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -269,9 +284,6 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -350,6 +362,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -524,7 +545,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:43 PM</t>
+    <t>Saturday, 12 July, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1813,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,7 +1839,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1835,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,7 +1872,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1864,15 +1885,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1917,28 +1938,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2023,7 +2044,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,11 +2120,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,7 +2202,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2194,18 +2215,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,31 +2235,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2313,7 +2334,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2326,15 +2347,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2436,7 +2457,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2452,13 +2473,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2469,7 +2490,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,7 +2523,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2518,7 +2539,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,28 +2598,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2610,31 +2631,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,7 +2664,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2660,14 +2681,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2808,7 +2829,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2825,11 +2846,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2891,11 +2912,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2924,49 +2945,115 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3382.3449999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>171</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>172</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>173</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>164</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>40</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>175</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>177</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>138</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>40</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>107</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3360.3449999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>178</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>179</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>180</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3245,10 +3332,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 6:49 PM</t>
+    <t>Saturday, 12 July, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>54.5000</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
@@ -320,6 +332,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -413,6 +437,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -470,6 +503,15 @@
     <t>288.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>بلسم MINK</t>
   </si>
   <si>
@@ -482,52 +524,55 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان اورال بي</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>35:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
@@ -545,7 +590,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:17 PM</t>
+    <t>Saturday, 12 July, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1924,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,11 +1934,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1905,7 +1950,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1918,15 +1963,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1938,14 +1983,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,11 +2000,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1971,28 +2016,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2004,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,11 +2066,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2037,14 +2082,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2077,7 +2122,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,14 +2132,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2103,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,11 +2165,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2136,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2198,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2214,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2186,14 +2231,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,7 +2247,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2219,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,31 +2280,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2301,31 +2346,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2334,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,11 +2396,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2367,14 +2412,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,11 +2429,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2400,7 +2445,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2413,15 +2458,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2433,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,11 +2594,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2565,20 +2610,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2589,7 +2634,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2605,7 +2650,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,14 +2660,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2676,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2693,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,28 +2709,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2697,28 +2742,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2730,31 +2775,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2763,31 +2808,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,14 +2841,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2858,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2829,14 +2874,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,14 +2891,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2862,14 +2907,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,14 +2924,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,7 +2940,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2912,14 +2957,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2928,14 +2973,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2945,11 +2990,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2961,14 +3006,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2978,11 +3023,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -2994,14 +3039,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3011,49 +3056,214 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>40</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>47</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>40</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>187</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>188</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>40</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>95</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>108</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3360.3449999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>178</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>179</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>180</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>40</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>190</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>149</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>40</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>115</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3581.2150000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>193</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>194</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>195</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3342,10 +3552,35 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:20 PM</t>
+    <t>Saturday, 12 July, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -312,12 +321,6 @@
   </si>
   <si>
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -1307,11 +1310,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1323,14 +1326,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1340,14 +1343,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1380,7 +1383,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1396,7 +1399,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1406,14 +1409,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1422,14 +1425,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1446,7 +1449,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1462,7 +1465,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1479,7 +1482,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1495,24 +1498,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1521,31 +1524,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1554,14 +1557,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1571,14 +1574,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1604,14 +1607,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1637,14 +1640,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1653,14 +1656,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1686,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1703,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1719,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,14 +1739,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1752,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1776,7 +1779,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1792,7 +1795,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,11 +1805,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1851,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,14 +1871,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1901,14 +1904,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1924,7 +1927,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,14 +1937,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1996,7 +1999,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2023,13 +2026,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2056,13 +2059,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2089,7 +2092,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2122,7 +2125,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2132,11 +2135,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2148,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,11 +2168,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2221,7 +2224,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,14 +2234,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,11 +2267,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2297,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2333,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2346,7 +2349,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2359,18 +2362,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,28 +2382,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2429,14 +2432,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,31 +2514,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,28 +2547,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,31 +2613,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,31 +2646,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,14 +2696,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,11 +2762,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,14 +2795,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,28 +2844,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2874,31 +2877,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,31 +2910,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2953,18 +2956,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,31 +2976,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,28 +3009,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3046,24 +3049,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3072,31 +3075,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3105,28 +3108,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3138,28 +3141,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3178,21 +3181,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3204,66 +3207,99 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>150</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>43</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>116</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3581.2150000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>193</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3661.2150000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>194</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>195</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>196</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3577,10 +3613,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -68,7 +68,10 @@
     <t>58.00</t>
   </si>
   <si>
-    <t>58.0000</t>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
@@ -128,6 +131,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -593,7 +602,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:21 PM</t>
+    <t>Saturday, 12 July, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1276,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1284,7 +1293,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1293,14 +1302,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1310,11 +1319,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1359,7 +1368,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1409,14 +1418,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1475,14 +1484,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1508,14 +1517,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1524,20 +1533,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1548,7 +1557,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1564,13 +1573,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1581,7 +1590,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1838,11 +1847,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2032,7 +2041,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2059,13 +2068,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2092,13 +2101,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2125,7 +2134,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2135,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2323,7 +2332,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2370,10 +2379,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2395,18 +2404,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2422,13 +2431,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2538,7 +2547,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2554,13 +2563,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2571,7 +2580,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2587,13 +2596,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2620,7 +2629,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2653,24 +2662,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2686,24 +2695,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2736,7 +2745,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2752,7 +2761,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2868,7 +2877,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2884,13 +2893,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2917,24 +2926,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2950,24 +2959,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2989,18 +2998,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,31 +3018,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3049,21 +3058,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3075,31 +3084,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3115,24 +3124,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,28 +3150,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3174,28 +3183,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3207,28 +3216,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3247,59 +3256,92 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3661.2150000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>194</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>195</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>196</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>153</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>47</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>119</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3911.2150000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>197</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>198</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>199</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3618,10 +3660,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -272,6 +272,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -413,6 +425,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -536,12 +560,18 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -551,9 +581,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -602,7 +629,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:37 PM</t>
+    <t>Saturday, 12 July, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1996,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2019,7 +2046,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2035,7 +2062,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2045,11 +2072,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2061,7 +2088,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2074,15 +2101,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,11 +2138,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2127,28 +2154,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2210,11 +2237,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2266,7 +2293,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2342,11 +2369,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2424,7 +2451,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2437,18 +2464,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2457,28 +2484,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2490,7 +2517,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,7 +2616,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2602,15 +2629,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,31 +2682,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,31 +2715,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,31 +2781,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,14 +2864,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,11 +2930,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2919,31 +2946,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,31 +2979,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,7 +3012,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3062,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,11 +3095,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3084,7 +3111,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,14 +3161,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3150,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3183,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,11 +3227,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3216,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,14 +3260,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3249,14 +3276,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3266,11 +3293,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3282,14 +3309,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3299,49 +3326,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3911.2150000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>197</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>198</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>199</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>47</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>105</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>116</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>47</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>203</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>161</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>47</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>123</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3974.2150000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>206</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>207</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>208</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3665,10 +3791,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>105.0000</t>
+    <t>210.0000</t>
   </si>
   <si>
     <t>BIONAL 30 CAP</t>
@@ -392,7 +392,7 @@
     <t>193.50</t>
   </si>
   <si>
-    <t>63.8550</t>
+    <t>127.7100</t>
   </si>
   <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
@@ -629,7 +629,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:39 PM</t>
+    <t>Saturday, 12 July, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,7 +1501,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1518,7 +1518,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2425,7 +2425,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2442,7 +2442,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>3974.2150000000001</v>
+        <v>4143.0699999999997</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:41 PM</t>
+    <t>Saturday, 12 July, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 10MG 30 TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -212,12 +224,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -428,13 +434,16 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>5:4</t>
+    <t>5:3</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -575,15 +584,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -629,7 +644,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:42 PM</t>
+    <t>Saturday, 12 July, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1318,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1313,14 +1328,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1329,14 +1344,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1353,7 +1368,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1362,14 +1377,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1379,14 +1394,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1395,7 +1410,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1412,14 +1427,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1452,7 +1467,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1468,7 +1483,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1478,14 +1493,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1511,11 +1526,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1527,14 +1542,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1577,14 +1592,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1593,20 +1608,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1617,7 +1632,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1633,13 +1648,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1650,7 +1665,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1666,7 +1681,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1709,7 +1724,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1732,7 +1747,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1815,7 +1830,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,14 +1922,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1930,7 +1945,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,14 +2021,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,11 +2087,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2121,31 +2136,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,31 +2169,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2187,31 +2202,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2392,7 +2407,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2491,13 +2506,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2505,10 +2520,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,31 +2532,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2590,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2673,7 +2688,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2689,13 +2704,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2722,13 +2737,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2739,7 +2754,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2755,7 +2770,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2788,24 +2803,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2821,24 +2836,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2871,7 +2886,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2887,7 +2902,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2912,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2986,7 +3001,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3003,7 +3018,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3019,13 +3034,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3036,7 +3051,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3052,24 +3067,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3118,24 +3133,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,31 +3159,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,31 +3192,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,31 +3225,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,31 +3258,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,31 +3291,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,31 +3324,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3342,31 +3357,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3375,31 +3390,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3408,66 +3423,99 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4143.0699999999997</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>206</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>207</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>208</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>164</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>51</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>125</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4160.9499999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>211</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>212</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>213</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3806,10 +3854,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -374,6 +392,9 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -500,6 +521,15 @@
     <t>260.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -560,12 +590,6 @@
     <t>بلسم MINK</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -644,7 +668,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 7:47 PM</t>
+    <t>Saturday, 12 July, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,7 +1507,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1493,14 +1517,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1533,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1549,7 +1573,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1566,7 +1590,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1582,7 +1606,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1615,7 +1639,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1632,7 +1656,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1648,21 +1672,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1674,31 +1698,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1707,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1724,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1757,14 +1781,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1773,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,14 +1814,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1806,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1823,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1839,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1889,11 +1913,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1905,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,11 +1946,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1938,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2011,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2136,7 +2160,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,20 +2193,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2209,13 +2233,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2242,13 +2266,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2275,21 +2299,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,11 +2342,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,11 +2375,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,11 +2441,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2433,7 +2457,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2450,11 +2474,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,7 +2556,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2545,15 +2569,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,31 +2655,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,11 +2705,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,11 +2738,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2730,31 +2754,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,31 +2853,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2936,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2928,31 +2952,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,7 +3051,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,28 +3084,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3093,31 +3117,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3150,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,31 +3183,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,7 +3216,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3205,18 +3229,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,31 +3249,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,7 +3282,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3271,15 +3295,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3291,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,7 +3348,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3337,18 +3361,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,28 +3381,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3403,15 +3427,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3430,24 +3454,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3463,59 +3487,191 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4160.9499999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>211</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>212</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>25</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>54</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>213</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>54</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>113</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>215</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>124</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>54</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>216</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>218</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>174</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>54</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>132</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4483.9499999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>219</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>220</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>221</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3859,10 +4015,30 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -668,7 +686,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:11 PM</t>
+    <t>Saturday, 12 July, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,21 +1723,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1731,31 +1749,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1929,14 +1947,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1969,7 +1987,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2019,7 +2037,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2035,7 +2053,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2200,7 +2218,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2272,7 +2290,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2299,13 +2317,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2332,13 +2350,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2365,7 +2383,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,11 +2492,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2558,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,10 +2661,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,31 +2673,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2728,24 +2746,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2778,7 +2796,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2866,7 +2884,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2893,7 +2911,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2910,7 +2928,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2926,24 +2944,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2959,13 +2977,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2976,7 +2994,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3025,21 +3043,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,7 +3218,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3223,24 +3241,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,31 +3267,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,7 +3300,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3295,15 +3313,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3315,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3361,18 +3379,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3399,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,7 +3432,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3427,18 +3445,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,31 +3465,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,7 +3498,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3493,15 +3511,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3513,31 +3531,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,7 +3564,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3559,15 +3577,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3579,28 +3597,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3612,66 +3630,132 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4483.9499999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>219</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>220</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>221</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>130</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>57</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>222</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>180</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>57</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>138</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4603.1199999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>225</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>226</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>227</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4035,10 +4119,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -566,7 +572,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -626,10 +632,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -686,7 +692,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:13 PM</t>
+    <t>Saturday, 12 July, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2092,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,11 +2102,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2151,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2232,10 +2238,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2244,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,11 +2300,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2310,7 +2316,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2323,15 +2329,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2376,28 +2382,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2459,14 +2465,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,14 +2481,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,11 +2498,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2647,7 +2653,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2752,7 +2758,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2760,10 +2766,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,28 +2778,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2845,7 +2851,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,31 +2943,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,28 +2976,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,31 +3042,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,31 +3075,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,7 +3224,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3241,7 +3247,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,28 +3306,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3373,7 +3379,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,7 +3405,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,7 +3438,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3604,7 +3610,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,11 +3620,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3637,7 +3643,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3647,11 +3653,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3680,11 +3686,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3713,49 +3719,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4603.1199999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>225</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>226</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>182</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>57</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>140</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4673.9499999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
         <v>227</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>228</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>229</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4129,10 +4168,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -224,204 +224,219 @@
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>-90.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>54.5000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
     <t>85.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>54.5000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -452,6 +467,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -563,7 +587,13 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -596,9 +626,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>288.0000</t>
   </si>
   <si>
@@ -632,10 +659,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -692,7 +719,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:32 PM</t>
+    <t>Saturday, 12 July, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1927,7 +1954,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1970,14 +1997,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2003,14 +2030,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2026,7 +2053,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2036,14 +2063,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2076,7 +2103,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2092,7 +2119,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2125,7 +2152,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2135,11 +2162,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2234,14 +2261,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2257,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2267,14 +2294,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2290,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2327,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2362,7 +2389,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2389,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2422,13 +2449,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2472,7 +2499,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2488,7 +2515,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,11 +2558,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,11 +2624,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2745,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,7 +2805,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2791,18 +2818,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,28 +2838,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2844,31 +2871,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,14 +2921,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2927,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2950,7 +2977,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2976,7 +3003,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2989,15 +3016,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3009,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,31 +3069,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,31 +3102,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,28 +3168,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3247,7 +3274,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,11 +3284,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,11 +3350,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3339,28 +3366,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3372,31 +3399,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,28 +3432,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3438,7 +3465,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3455,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3504,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3537,7 +3564,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3554,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3570,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3603,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3647,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3636,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3680,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3669,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,14 +3713,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3702,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3719,11 +3746,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3735,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3752,49 +3779,148 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4673.9499999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>227</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>228</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>229</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>57</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>121</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>135</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>57</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>190</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>57</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>145</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>5032.6300000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>236</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>237</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>238</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4173,10 +4299,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:37 PM</t>
+    <t>Saturday, 12 July, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -581,9 +593,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -659,10 +668,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -719,7 +728,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:38 PM</t>
+    <t>Saturday, 12 July, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1905,7 +1914,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2367,7 +2376,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2383,7 +2392,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2409,7 +2418,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2422,15 +2431,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,11 +2468,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2475,28 +2484,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2508,7 +2517,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2647,7 +2656,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,11 +2666,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,11 +2765,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,7 +2847,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2851,18 +2860,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,7 +2880,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2904,28 +2913,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2937,7 +2946,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3027,7 +3036,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,31 +3078,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,28 +3111,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,31 +3177,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,31 +3210,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3255,10 +3264,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3307,7 +3316,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3324,7 +3333,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3472,21 +3481,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,11 +3689,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3736,7 +3745,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3868,7 +3877,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3878,49 +3887,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>5032.6300000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>236</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>237</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>238</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>67</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>57</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>149</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5062.6300000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>239</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>240</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>241</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4314,10 +4356,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -605,6 +605,9 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -632,6 +635,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ZINC OLIVE BABY CREAM 75 GM</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -728,7 +740,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:40 PM</t>
+    <t>Saturday, 12 July, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3349,7 +3361,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3507,31 +3519,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3547,24 +3559,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,7 +3585,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>220</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,7 +3651,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3705,7 +3717,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3825,10 +3837,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3887,11 +3899,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3910,7 +3922,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3920,49 +3932,115 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>239</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>139</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>57</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>240</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>67</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>57</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>149</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>150</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5062.6300000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>239</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>240</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>241</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5157.6300000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>243</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>244</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>245</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4361,10 +4439,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:42 PM</t>
+    <t>Saturday, 12 July, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -635,15 +635,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>ZINC OLIVE BABY CREAM 75 GM</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -728,6 +719,12 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>ملح انجليزي</t>
   </si>
   <si>
@@ -740,7 +737,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:43 PM</t>
+    <t>Saturday, 12 July, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3493,7 +3490,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,14 +3500,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,14 +3533,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3559,21 +3556,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3585,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3602,14 +3599,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,14 +3615,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,14 +3632,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3668,14 +3665,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3701,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,14 +3714,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,14 +3731,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,11 +3764,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3783,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,14 +3797,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3823,7 +3820,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,14 +3830,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,14 +3846,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,11 +3863,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3882,14 +3879,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,11 +3896,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3915,14 +3912,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,11 +3929,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3948,7 +3945,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3965,11 +3962,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -3981,7 +3978,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4010,13 +4007,13 @@
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="P87" s="13">
-        <v>5157.6300000000001</v>
+        <v>5123.6300000000001</v>
       </c>
       <c r="Q87" s="13"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c t="s" r="A88" s="14">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4024,13 +4021,13 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c t="s" r="G88" s="15">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="16"/>
       <c t="s" r="K88" s="17">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -431,9 +449,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -509,9 +524,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -713,9 +725,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -737,7 +746,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:47 PM</t>
+    <t>Saturday, 12 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1651,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1659,7 +1668,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1692,7 +1701,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1708,7 +1717,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1741,7 +1750,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1774,7 +1783,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1807,21 +1816,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1866,7 +1875,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1879,11 +1888,11 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1939,7 +1948,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,11 +2090,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2104,7 +2113,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2220,7 +2229,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2236,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2302,7 +2311,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,10 +2424,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2427,7 +2436,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2460,20 +2469,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2500,13 +2509,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2533,13 +2542,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2566,13 +2575,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2583,7 +2592,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2599,7 +2608,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2708,7 +2717,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2731,7 +2740,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2830,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2856,7 +2865,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2896,13 +2905,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2913,7 +2922,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2943,10 +2952,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2955,28 +2964,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2988,31 +2997,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,7 +3129,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3133,15 +3142,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,31 +3195,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,31 +3228,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,28 +3294,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,11 +3344,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3408,7 +3417,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3424,7 +3433,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3523,7 +3532,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3549,31 +3558,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3589,24 +3598,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3628,15 +3637,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3648,31 +3657,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3694,18 +3703,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3721,24 +3730,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3747,7 +3756,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3760,18 +3769,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,31 +3789,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3826,15 +3835,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3846,20 +3855,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3867,10 +3876,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3892,15 +3901,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3912,28 +3921,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3952,21 +3961,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -3978,66 +3987,132 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5123.6300000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>145</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>63</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>242</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>243</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>244</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>73</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>63</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>154</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5156.6300000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>245</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>246</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>247</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4446,10 +4521,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -746,7 +755,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:48 PM</t>
+    <t>Saturday, 12 July, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1816,7 +1825,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1833,7 +1842,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1882,21 +1891,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1908,31 +1917,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2113,7 +2122,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2262,7 +2271,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2311,7 +2320,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2548,7 +2557,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2575,13 +2584,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2608,13 +2617,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2658,7 +2667,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2773,7 +2782,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,7 +2891,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2905,7 +2914,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,7 +2947,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2952,10 +2961,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,7 +2973,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2977,18 +2986,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3037,13 +3046,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3186,7 +3195,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,13 +3211,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3219,7 +3228,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,13 +3244,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3268,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3301,24 +3310,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3334,13 +3343,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3351,7 +3360,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3381,10 +3390,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3631,21 +3640,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3657,31 +3666,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,31 +3699,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3736,18 +3745,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3769,18 +3778,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>73</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,31 +3798,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,28 +3831,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3855,31 +3864,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3895,24 +3904,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,28 +3930,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3954,28 +3963,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -3987,28 +3996,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4020,28 +4029,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4060,59 +4069,92 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5156.6300000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>245</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>246</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>247</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>76</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>66</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>157</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5184.6300000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>248</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>249</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>250</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4531,10 +4573,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -440,6 +440,15 @@
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
+    <t>INFAJOY OINT. 50 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -539,9 +548,6 @@
     <t>5:3</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -566,6 +572,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -677,9 +695,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -755,7 +770,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:49 PM</t>
+    <t>Saturday, 12 July, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2749,7 +2764,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,7 +2807,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2815,7 +2830,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,7 +2939,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2947,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2964,7 +2979,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2980,7 +2995,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2994,10 +3009,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,7 +3021,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3019,18 +3034,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,13 +3094,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,31 +3252,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3294,7 +3309,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,24 +3325,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3343,13 +3358,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3360,7 +3375,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,7 +3391,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3409,13 +3424,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3423,7 +3438,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3607,7 +3622,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3666,31 +3681,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,31 +3714,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,7 +3747,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,7 +3813,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,10 +3933,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,7 +3945,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3947,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3970,7 +3985,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,7 +4011,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4013,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4102,7 +4117,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,49 +4127,115 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5184.6300000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>248</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>249</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>151</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>66</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>250</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>76</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>66</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>160</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5238.4899999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>253</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>254</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>255</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4578,10 +4659,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 8:55 PM</t>
+    <t>Saturday, 12 July, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:10 PM</t>
+    <t>Saturday, 12 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -602,6 +602,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -770,7 +782,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:14 PM</t>
+    <t>Saturday, 12 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3417,31 +3429,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3450,31 +3462,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3639,7 +3651,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3655,7 +3667,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,7 +3858,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,7 +3891,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3952,7 +3964,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4073,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,11 +4139,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,11 +4172,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4193,49 +4205,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>256</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>76</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>66</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>160</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>161</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5238.4899999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>253</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>254</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>255</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5246.4099999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>257</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>258</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>259</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4669,10 +4714,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -143,6 +143,24 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -782,7 +800,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:15 PM</t>
+    <t>Saturday, 12 July, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1720,7 +1738,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1753,7 +1771,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1770,7 +1788,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1786,7 +1804,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1852,7 +1870,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1869,7 +1887,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1885,7 +1903,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1902,7 +1920,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1918,7 +1936,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1935,7 +1953,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1951,21 +1969,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2012,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,7 +2028,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2023,11 +2041,11 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2083,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2248,7 +2266,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2364,7 +2382,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2398,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2446,7 +2464,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,10 +2577,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,7 +2589,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,20 +2622,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2644,13 +2662,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2677,13 +2695,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2710,13 +2728,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2727,7 +2745,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2743,7 +2761,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,11 +2837,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,11 +2903,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,10 +3072,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,31 +3084,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,7 +3117,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3112,18 +3130,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3139,13 +3157,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3172,24 +3190,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>180</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3322,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,31 +3348,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3387,7 +3405,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3403,24 +3421,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,20 +3480,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3486,7 +3504,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3502,7 +3520,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3535,13 +3553,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3549,7 +3567,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,11 +3695,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3733,7 +3751,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3792,31 +3810,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,31 +3843,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,7 +3876,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3871,15 +3889,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3891,31 +3909,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>237</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3937,18 +3955,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,31 +3975,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,7 +4008,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4003,18 +4021,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,31 +4041,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,7 +4074,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4069,15 +4087,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4089,31 +4107,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,7 +4140,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4135,15 +4153,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4155,28 +4173,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4188,28 +4206,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4221,66 +4239,132 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5246.4099999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>257</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>258</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>259</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>157</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>72</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>260</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>262</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>82</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>72</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>166</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5349.9099999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>263</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>264</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>265</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4719,10 +4803,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -641,6 +647,9 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -737,10 +746,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -764,7 +773,7 @@
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -800,7 +809,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:21 PM</t>
+    <t>Saturday, 12 July, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2233,7 +2242,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,11 +2252,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,7 +2483,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2497,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2610,10 +2619,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,11 +2681,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2701,15 +2710,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,11 +2747,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2754,28 +2763,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2787,7 +2796,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,7 +2862,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,7 +2978,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2992,7 +3001,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,11 +3077,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3171,10 +3180,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3183,7 +3192,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3216,28 +3225,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3249,7 +3258,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,28 +3456,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3546,31 +3555,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3612,28 +3621,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3671,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,11 +3869,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3876,31 +3885,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,7 +3951,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3959,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>243</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,7 +4017,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,7 +4083,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,7 +4149,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4223,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4265,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4279,7 +4288,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,49 +4331,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5349.9099999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>262</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>159</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>72</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>263</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>264</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c t="s" r="Q95" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>265</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>82</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>72</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>168</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5425.4700000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>266</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>267</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>268</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4813,10 +4888,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:42 PM</t>
+    <t>Saturday, 12 July, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -641,10 +641,7 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
+    <t>25.7400</t>
   </si>
   <si>
     <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
@@ -746,10 +743,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,7 +803,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:45 PM</t>
+    <t>Saturday, 12 July, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3562,7 +3556,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3576,10 +3570,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,7 +3582,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3621,7 +3615,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3638,11 +3632,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3654,7 +3648,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3671,11 +3665,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3687,7 +3681,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3704,7 +3698,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3720,7 +3714,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3737,11 +3731,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3753,7 +3747,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3786,7 +3780,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3803,11 +3797,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>38</v>
@@ -3819,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,11 +3830,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3852,7 +3846,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3873,7 +3867,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3885,7 +3879,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3906,7 +3900,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>121</v>
@@ -3918,7 +3912,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3935,11 +3929,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3951,7 +3945,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3984,7 +3978,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4017,7 +4011,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4034,11 +4028,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4050,7 +4044,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4067,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,7 +4077,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4100,7 +4094,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4116,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,11 +4127,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4149,7 +4143,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4182,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,7 +4193,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4215,7 +4209,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4232,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4248,7 +4242,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4281,7 +4275,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4314,14 +4308,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4347,7 +4341,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4364,11 +4358,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4380,7 +4374,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4409,13 +4403,13 @@
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="P97" s="13">
-        <v>5425.4700000000003</v>
+        <v>5440.3400000000001</v>
       </c>
       <c r="Q97" s="13"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c t="s" r="A98" s="14">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4423,13 +4417,13 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c t="s" r="G98" s="15">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="16"/>
       <c t="s" r="K98" s="17">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -596,6 +596,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -788,7 +797,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>ملح انجليزي</t>
@@ -3424,24 +3433,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,20 +3459,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3474,7 +3483,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3490,13 +3499,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3523,7 +3532,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3615,31 +3624,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3655,13 +3664,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3672,7 +3681,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3688,7 +3697,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3702,10 +3711,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3754,7 +3763,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3820,7 +3829,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3952,21 +3961,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4077,7 +4086,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>196</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4216,7 +4225,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4268,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,11 +4334,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4381,7 +4390,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4391,49 +4400,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>82</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>72</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>168</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>169</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5440.3400000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>264</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>265</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>266</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5595.3400000000001</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4892,10 +4934,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>AROMEGA GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -188,6 +200,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -227,9 +248,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -359,6 +377,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -416,6 +443,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
     <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
@@ -425,6 +461,24 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
@@ -575,9 +629,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -596,6 +647,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 7 CAPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
     <t>PLEX BEAUTY HAIR CREAM</t>
   </si>
   <si>
@@ -647,6 +704,9 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>SIRDALUD 4MG 20 TAB</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -656,6 +716,24 @@
     <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>29.3700</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -665,6 +743,15 @@
     <t>260.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 10MG 60 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -677,9 +764,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -695,9 +779,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -764,9 +845,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -812,7 +890,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:47 PM</t>
+    <t>Saturday, 12 July, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,24 +1894,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1842,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1875,7 +1953,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1892,14 +1970,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1908,7 +1986,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1925,14 +2003,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,11 +2036,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1974,14 +2052,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,20 +2118,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2080,7 +2158,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,14 +2168,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,7 +2184,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2119,11 +2197,11 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2179,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2271,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,11 +2366,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2304,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2377,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2436,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,11 +2531,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2469,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2493,7 +2571,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2509,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,11 +2597,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2535,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2575,7 +2653,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2700,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2721,10 +2799,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,7 +2811,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2746,18 +2824,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2766,20 +2844,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2806,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2823,7 +2901,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2839,7 +2917,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2856,7 +2934,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2872,7 +2950,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,28 +3009,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2964,28 +3042,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2997,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3014,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3030,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3063,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,11 +3158,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3096,7 +3174,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3113,11 +3191,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3129,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,7 +3273,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3208,15 +3286,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3228,31 +3306,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,7 +3339,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3278,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3294,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,31 +3471,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3439,15 +3517,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3459,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3483,7 +3561,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3499,24 +3577,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,7 +3735,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3670,18 +3748,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3714,7 +3792,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3730,13 +3808,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3744,10 +3822,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,11 +3851,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3789,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3905,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3961,7 +4039,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3978,7 +4056,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4000,18 +4078,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,28 +4131,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4086,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,7 +4197,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4132,18 +4210,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,28 +4230,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4185,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>199</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,28 +4329,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4284,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,28 +4395,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4350,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4383,31 +4461,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4416,66 +4494,429 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5595.3400000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>267</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>268</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>269</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>18</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>51</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>259</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>18</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>51</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>271</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>277</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>51</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>245</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>279</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>51</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>160</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>281</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>51</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>282</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>18</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>51</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>282</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>285</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>25</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>51</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>42</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>18</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>51</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>160</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>288</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>51</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>186</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>289</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>177</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>51</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>290</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>292</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>88</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>51</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>186</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6090.6999999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>293</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>294</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>295</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +5380,65 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -620,6 +632,9 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -830,6 +845,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سائل باربار</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -890,7 +908,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 9:48 PM</t>
+    <t>Saturday, 12 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1681,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1706,14 +1724,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1779,7 +1797,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1795,7 +1813,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1854,7 +1872,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1887,20 +1905,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1911,7 +1929,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1927,24 +1945,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1986,7 +2004,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,7 +2070,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,11 +2120,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,7 +2169,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2168,11 +2186,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2184,28 +2202,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2217,20 +2235,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2241,7 +2259,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2275,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2340,7 +2358,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,11 +2417,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,11 +2450,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2571,7 +2589,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,11 +2648,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2681,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2886,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,7 +2902,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2964,10 +2982,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,11 +3011,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3009,31 +3027,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,28 +3060,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3075,28 +3093,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3108,7 +3126,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,7 +3192,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3191,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,11 +3275,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,11 +3308,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3407,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,7 +3489,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3484,18 +3502,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,7 +3522,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3517,15 +3535,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3537,28 +3555,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3570,7 +3588,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,7 +3753,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3748,11 +3766,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3768,31 +3786,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,31 +3819,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,28 +3852,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4067,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4065,31 +4083,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,31 +4116,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,31 +4149,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,11 +4265,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,11 +4364,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,28 +4446,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4461,31 +4479,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,31 +4512,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,7 +4545,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4540,18 +4558,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4578,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,7 +4644,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4639,18 +4657,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,7 +4710,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4705,15 +4723,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,7 +4776,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4771,15 +4789,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4791,31 +4809,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,28 +4842,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4857,66 +4875,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6090.6999999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>293</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>294</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>295</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>181</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>55</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>296</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>298</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>92</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>55</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>190</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6193.4099999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>299</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>300</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>301</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5435,10 +5519,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -311,6 +311,9 @@
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -908,7 +911,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:04 PM</t>
+    <t>Saturday, 12 July, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,7 +2443,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2483,11 +2486,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2912,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2961,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2978,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3011,14 +3014,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3044,11 +3047,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3060,31 +3063,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3110,11 +3113,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3126,28 +3129,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3176,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3209,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3242,11 +3245,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3308,11 +3311,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3341,11 +3344,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3407,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3440,11 +3443,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3456,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3473,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3489,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,7 +3525,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3535,18 +3538,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3555,7 +3558,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3588,28 +3591,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,7 +3789,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3799,15 +3802,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3819,31 +3822,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,31 +3855,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3885,28 +3888,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,11 +3971,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3991,7 +3994,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4067,11 +4070,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4083,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,11 +4103,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4116,31 +4119,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,31 +4185,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4255,7 +4258,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4321,7 +4324,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,11 +4400,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,28 +4482,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4519,7 +4522,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4552,7 +4555,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4578,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4618,7 +4621,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,14 +4631,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,7 +4647,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4661,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>92</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4684,7 +4687,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4710,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4750,7 +4753,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,14 +4763,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>223</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4849,7 +4852,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4882,7 +4885,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4908,14 +4911,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4958,49 +4961,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>299</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>92</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>55</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>191</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6193.4099999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>299</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6291.4099999999999</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>300</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
         <v>301</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>302</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5529,10 +5565,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -911,7 +911,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:12 PM</t>
+    <t>Saturday, 12 July, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -332,13 +341,16 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>170.0000</t>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -416,9 +428,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -545,9 +554,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -623,6 +629,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -671,6 +686,9 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PLEX BEAUTY HAIR CREAM</t>
   </si>
   <si>
@@ -854,7 +872,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -911,7 +929,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:13 PM</t>
+    <t>Saturday, 12 July, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1735,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1783,7 +1801,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1800,7 +1818,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1816,7 +1834,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1866,7 +1884,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1882,7 +1900,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1899,7 +1917,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1948,24 +1966,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1974,20 +1992,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1998,7 +2016,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2014,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2031,7 +2049,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2064,7 +2082,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2097,7 +2115,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2146,7 +2164,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2179,7 +2197,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2196,7 +2214,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,13 +2263,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2278,24 +2296,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2504,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2542,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2658,7 +2676,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2717,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2938,7 +2956,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2988,7 +3006,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3004,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3021,7 +3039,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3037,7 +3055,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3070,7 +3088,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,11 +3098,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3103,13 +3121,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3120,7 +3138,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3136,13 +3154,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3169,13 +3187,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3219,7 +3237,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3235,7 +3253,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,7 +3279,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3278,11 +3296,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3301,7 +3319,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,7 +3395,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3400,7 +3418,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3433,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3466,7 +3484,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3571,7 +3589,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3579,10 +3597,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,7 +3609,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3604,15 +3622,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3624,28 +3642,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3697,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3730,7 +3748,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,11 +3758,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3824,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3829,13 +3847,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3846,7 +3864,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3862,7 +3880,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,28 +3906,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3921,28 +3939,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,31 +4005,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4126,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,31 +4170,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,28 +4203,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4218,7 +4236,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,28 +4269,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4284,31 +4302,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4390,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,11 +4517,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4515,28 +4533,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4555,24 +4573,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,28 +4599,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4614,28 +4632,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4647,31 +4665,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>281</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4693,18 +4711,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4713,28 +4731,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4759,18 +4777,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4779,31 +4797,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>224</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,24 +4830,24 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4852,21 +4870,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4885,24 +4903,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,31 +4929,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,28 +4962,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -4984,59 +5002,158 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6291.4099999999999</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>300</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>301</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>58</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>193</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>302</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>184</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>58</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>303</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>305</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>95</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>58</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>193</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6523.4099999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>306</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>307</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>308</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5570,10 +5687,25 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -521,6 +521,12 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -872,12 +878,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -905,6 +917,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ماكنيه حلاقه ناسيت</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -929,7 +947,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:16 PM</t>
+    <t>Saturday, 12 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3226,15 +3244,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3246,7 +3264,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,7 +3330,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3329,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,7 +3446,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3451,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3484,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,11 +3545,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3622,7 +3640,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3630,10 +3648,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,7 +3660,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3675,31 +3693,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,7 +3726,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,7 +3776,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3781,7 +3799,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3923,11 +3941,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3939,7 +3957,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3952,15 +3970,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3972,31 +3990,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,31 +4023,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,28 +4056,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4177,7 +4195,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,7 +4221,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4220,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4269,31 +4287,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,31 +4353,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4507,7 +4525,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,7 +4568,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4573,7 +4591,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4606,7 +4624,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,28 +4650,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4764,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>287</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4814,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>95</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,11 +4898,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4946,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4962,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,14 +4997,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,7 +5013,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5012,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5028,14 +5046,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5045,11 +5063,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5061,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5078,11 +5096,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5101,7 +5119,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5111,49 +5129,148 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6523.4099999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>306</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>307</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>58</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>195</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>308</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>186</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>58</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>309</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>95</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>58</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>195</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6692.4099999999999</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>312</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>313</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>314</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5702,10 +5819,25 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -686,6 +686,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 7 CAPS</t>
   </si>
   <si>
@@ -842,6 +848,9 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -947,7 +956,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:17 PM</t>
+    <t>Saturday, 12 July, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3990,7 +3999,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4003,15 +4012,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4023,31 +4032,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,31 +4065,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,28 +4098,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,11 +4181,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4237,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,7 +4263,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4320,31 +4329,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,31 +4395,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4558,7 +4567,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,7 +4610,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4624,7 +4633,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4657,7 +4666,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4683,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,7 +4758,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4766,11 +4775,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>117</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,7 +4824,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>289</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4855,7 +4864,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4888,7 +4897,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4921,7 +4930,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4973,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>232</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,7 +5022,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5030,11 +5039,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5105,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5119,7 +5128,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,14 +5138,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>168</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,14 +5171,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5185,7 +5194,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,11 +5204,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5211,14 +5220,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5232,45 +5241,111 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>186</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>58</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>312</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>314</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>95</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>58</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>195</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>196</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6692.4099999999999</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>312</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>313</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>314</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6809.4099999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>315</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>316</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>317</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5834,10 +5909,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -305,6 +305,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -350,9 +362,6 @@
     <t>255.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -629,12 +638,6 @@
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -956,7 +959,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:24 PM</t>
+    <t>Saturday, 12 July, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2488,7 +2491,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,11 +2600,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2613,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2637,7 +2640,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2646,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2719,7 +2722,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2745,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2769,7 +2772,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2785,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2818,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,11 +2831,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2884,7 +2887,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2894,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2910,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2983,7 +2986,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,14 +2996,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3016,7 +3019,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3029,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3066,7 +3069,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3082,7 +3085,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3099,7 +3102,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3115,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3148,7 +3151,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,11 +3161,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3181,13 +3184,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3198,7 +3201,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3214,7 +3217,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3247,7 +3250,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,11 +3260,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3286,11 +3289,11 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3330,7 +3333,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3346,7 +3349,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,7 +3375,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3389,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3412,7 +3415,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3445,7 +3448,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,7 +3458,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3478,7 +3481,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,7 +3590,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3610,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3627,7 +3630,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3643,7 +3646,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3657,10 +3660,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3682,18 +3685,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3742,24 +3745,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,7 +3771,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3785,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3834,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,11 +3953,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3966,7 +3969,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3983,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,7 +4002,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4016,11 +4019,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4045,15 +4048,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4065,31 +4068,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,31 +4101,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,28 +4134,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4237,7 +4240,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4313,11 +4316,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,11 +4349,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4362,31 +4365,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,31 +4431,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4501,7 +4504,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4547,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4567,7 +4570,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4646,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4699,7 +4702,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,28 +4761,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4798,7 +4801,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4831,7 +4834,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4897,7 +4900,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>292</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,7 +4926,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>95</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4963,7 +4966,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,11 +5042,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5062,7 +5065,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5194,7 +5197,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5204,11 +5207,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5227,7 +5230,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5253,14 +5256,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5270,14 +5273,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5303,49 +5306,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6809.4099999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>315</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>95</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>58</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>198</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6853.4099999999999</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>316</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
         <v>317</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>318</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5919,10 +5955,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -635,6 +635,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -959,7 +965,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:25 PM</t>
+    <t>Saturday, 12 July, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3745,21 +3751,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3771,31 +3777,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,7 +3810,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3821,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,7 +3860,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3877,7 +3883,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,7 +3992,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4068,7 +4074,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4081,15 +4087,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4101,31 +4107,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,31 +4140,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,28 +4173,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,11 +4256,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4306,7 +4312,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4349,11 +4355,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4398,31 +4404,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,31 +4470,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4636,7 +4642,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,7 +4685,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4702,7 +4708,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4768,7 +4774,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,28 +4800,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>293</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>95</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5032,7 +5038,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>235</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5164,7 +5170,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5197,7 +5203,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5296,7 +5302,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5306,14 +5312,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5339,49 +5345,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>317</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>95</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>58</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>198</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6853.4099999999999</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>316</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>317</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6939.4099999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>318</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>319</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>320</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5960,10 +5999,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -833,6 +833,15 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -965,7 +974,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:28 PM</t>
+    <t>Saturday, 12 July, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4642,7 +4651,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,11 +4727,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4840,21 +4849,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4939,7 +4948,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,7 +5007,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,14 +5024,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>95</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5057,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,7 +5090,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5104,7 +5113,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5170,7 +5179,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5321,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,14 +5354,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5368,7 +5377,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,49 +5387,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>320</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>95</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>58</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>198</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6939.4099999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>318</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>319</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>320</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7000.79</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>321</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>322</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>323</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6046,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:33 PM</t>
+    <t>Saturday, 12 July, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -440,10 +440,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>-90.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
+    <t>90.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -620,6 +617,9 @@
     <t>127.7100</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -974,7 +974,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:34 PM</t>
+    <t>Saturday, 12 July, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2968,7 +2968,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2985,7 +2985,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +2994,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3044,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3060,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,11 +3077,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3159,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3209,11 +3209,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3242,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3275,11 +3275,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3374,11 +3374,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3440,11 +3440,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3489,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3671,11 +3671,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>45</v>
@@ -3687,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3733,18 +3733,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,28 +3753,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3786,28 +3786,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3819,31 +3819,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3869,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4067,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4129,15 +4129,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4149,31 +4149,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,31 +4182,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,28 +4215,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4314,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4397,11 +4397,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4413,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4446,31 +4446,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,31 +4512,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4644,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4710,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4727,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4760,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4776,14 +4776,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4809,14 +4809,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,28 +4875,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4908,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4958,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5007,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,14 +5024,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5057,14 +5057,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>95</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,14 +5090,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5139,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5172,14 +5172,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,14 +5189,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5205,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5226,10 +5226,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,14 +5238,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5259,10 +5259,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,14 +5288,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5304,14 +5304,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5337,14 +5337,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,14 +5354,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5370,14 +5370,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5403,14 +5403,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5420,49 +5420,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7000.79</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>320</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>95</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>58</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>197</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7315.79</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>321</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>322</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
         <v>323</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6051,10 +6084,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -329,6 +329,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
@@ -380,13 +392,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>111.8400</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -464,13 +476,10 @@
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
-    <t>59.0000</t>
+    <t>295.0000</t>
   </si>
   <si>
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
@@ -575,9 +584,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -902,10 +908,22 @@
     <t>سائل باربار</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>36:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -974,7 +992,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:36 PM</t>
+    <t>Saturday, 12 July, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2539,7 +2557,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2688,7 +2706,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2787,7 +2805,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2803,7 +2821,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,11 +2897,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2968,7 +2986,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3015,10 +3033,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3084,7 +3102,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3100,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3117,7 +3135,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3133,7 +3151,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3150,7 +3168,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,7 +3184,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3232,13 +3250,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3249,7 +3267,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3265,7 +3283,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3298,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,11 +3326,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3324,7 +3342,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3337,11 +3355,11 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3381,7 +3399,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3397,7 +3415,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,7 +3441,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3463,7 +3481,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3496,7 +3514,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,7 +3524,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3529,7 +3547,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,7 +3557,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3562,7 +3580,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3595,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3766,7 +3784,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3774,10 +3792,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,28 +3804,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3826,21 +3844,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,7 +3903,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,7 +3953,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3958,7 +3976,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,7 +4085,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4149,7 +4167,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4162,15 +4180,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4182,31 +4200,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,31 +4233,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,28 +4266,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4387,7 +4405,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,7 +4431,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4430,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,11 +4481,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4479,31 +4497,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,31 +4563,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4679,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4750,7 +4768,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,7 +4811,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4816,7 +4834,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,11 +4844,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4882,7 +4900,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,28 +4926,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,14 +5009,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>298</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>95</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5174,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5205,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,14 +5240,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,7 +5256,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5255,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5271,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,14 +5306,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5304,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5339,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>50</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5337,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,14 +5372,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5370,14 +5388,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5387,14 +5405,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5403,14 +5421,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5420,11 +5438,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5436,14 +5454,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5453,49 +5471,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7315.79</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>321</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>322</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>323</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>107</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>58</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>324</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>326</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>95</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>58</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>199</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7663.79</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>327</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>328</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>329</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6089,10 +6173,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>CYSTONE 60 TAB</t>
   </si>
   <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -494,9 +512,6 @@
     <t>GENECA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
     <t>190.0000</t>
   </si>
   <si>
@@ -599,6 +614,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIGNOCAINE 5% TOP. CREAM 20 GM</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -752,9 +770,6 @@
     <t>95.00</t>
   </si>
   <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -914,9 +929,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -992,7 +1004,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:38 PM</t>
+    <t>Saturday, 12 July, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2326,7 +2338,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2343,7 +2355,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2359,13 +2371,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2392,24 +2404,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2788,7 +2800,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2904,7 +2916,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2920,7 +2932,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3085,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3118,7 +3130,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3151,7 +3163,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3184,7 +3196,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3201,7 +3213,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3217,7 +3229,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3250,7 +3262,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3276,20 +3288,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3297,10 +3309,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3309,31 +3321,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,7 +3371,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3382,13 +3394,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3421,18 +3433,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3557,7 +3569,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3580,7 +3592,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3712,7 +3724,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,7 +3750,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3771,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3811,13 +3823,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3828,7 +3840,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3844,7 +3856,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3870,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3883,18 +3895,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3910,13 +3922,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3927,7 +3939,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3955,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3969,28 +3981,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4151,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4200,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4213,18 +4225,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4240,7 +4252,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,28 +4278,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4299,28 +4311,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,31 +4377,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4530,31 +4542,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4563,28 +4575,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4596,7 +4608,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4629,28 +4641,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4662,31 +4674,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4735,7 +4747,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4933,7 +4945,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4959,7 +4971,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4972,15 +4984,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4992,31 +5004,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5032,13 +5044,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5065,7 +5077,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5098,7 +5110,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,14 +5120,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>239</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5124,7 +5136,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>304</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5256,7 +5268,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5273,14 +5285,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>239</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5372,14 +5384,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5421,7 +5433,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5438,11 +5450,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5471,11 +5483,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5494,7 +5506,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5504,11 +5516,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5537,49 +5549,148 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7663.79</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>325</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>326</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>58</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>205</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>327</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>110</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>58</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
         <v>328</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>329</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>330</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>98</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>58</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>205</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7798.79</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>331</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>332</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>333</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6183,10 +6294,25 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:40 PM</t>
+    <t>Saturday, 12 July, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -578,6 +578,15 @@
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INFAJOY OINT. 50 GM</t>
   </si>
   <si>
@@ -932,10 +941,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>36:0</t>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1004,7 +1010,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:49 PM</t>
+    <t>Saturday, 12 July, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3559,7 +3565,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3592,7 +3598,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3625,7 +3631,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,7 +3806,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3823,7 +3829,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3840,7 +3846,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3856,7 +3862,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3928,18 +3934,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3955,13 +3961,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3969,7 +3975,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3981,28 +3987,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4014,31 +4020,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,7 +4077,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4087,7 +4093,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4153,7 +4159,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4186,7 +4192,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4203,7 +4209,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4219,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4245,7 +4251,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,7 +4284,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4324,15 +4330,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4351,24 +4357,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,20 +4383,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4401,7 +4407,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4417,13 +4423,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4431,7 +4437,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4464,10 +4470,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,7 +4581,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4592,11 +4598,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4615,7 +4621,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4648,13 +4654,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4665,7 +4671,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4698,7 +4704,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,13 +4720,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4731,7 +4737,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,7 +4753,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4813,7 +4819,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,7 +4885,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,21 +5083,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5176,7 +5182,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,7 +5241,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5252,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5285,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>98</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5341,7 +5347,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5367,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,11 +5390,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5423,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5473,7 +5479,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,14 +5489,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5506,7 +5512,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5516,14 +5522,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>50</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5532,14 +5538,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5549,11 +5555,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5565,14 +5571,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5582,14 +5588,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5605,7 +5611,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5615,14 +5621,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5631,14 +5637,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5648,49 +5654,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7798.79</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>331</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>332</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>98</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>58</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>208</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7894.79</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>333</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>334</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>335</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6309,10 +6348,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -542,6 +551,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -611,6 +626,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LC NATURALS WHITENING SERUM</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
@@ -794,6 +818,15 @@
     <t>SIRDALUD 4MG 20 TAB</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -1010,7 +1043,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:51 PM</t>
+    <t>Saturday, 12 July, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1816,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1793,14 +1826,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1809,14 +1842,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1849,7 +1882,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1859,14 +1892,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1892,14 +1925,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1915,7 +1948,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1932,7 +1965,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1948,7 +1981,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1958,14 +1991,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1998,7 +2031,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2014,7 +2047,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2031,7 +2064,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2080,24 +2113,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2106,20 +2139,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2130,7 +2163,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2146,7 +2179,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2163,7 +2196,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2196,7 +2229,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2229,7 +2262,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2278,7 +2311,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2311,7 +2344,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2328,7 +2361,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2344,7 +2377,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2361,7 +2394,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2377,7 +2410,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2394,7 +2427,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2410,13 +2443,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2443,24 +2476,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2469,14 +2502,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2519,14 +2552,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2535,14 +2568,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,14 +2585,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,11 +2618,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,11 +2651,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2700,7 +2733,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2717,14 +2750,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2740,7 +2773,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,11 +2783,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2766,14 +2799,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,11 +2816,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2806,7 +2839,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2816,14 +2849,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2882,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2905,7 +2938,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2915,14 +2948,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2955,7 +2988,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2971,7 +3004,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3004,7 +3037,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3014,11 +3047,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3047,14 +3080,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3070,7 +3103,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3096,14 +3129,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3136,7 +3169,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3179,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3169,7 +3202,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3179,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3202,7 +3235,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3219,7 +3252,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3235,7 +3268,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3252,7 +3285,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3268,7 +3301,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3311,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3327,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3344,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3334,7 +3367,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,11 +3377,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3367,13 +3400,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3384,7 +3417,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3400,13 +3433,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3433,24 +3466,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3466,13 +3499,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3505,18 +3538,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3558,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,11 +3575,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3558,7 +3591,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3575,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,7 +3624,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3608,11 +3641,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3624,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,11 +3674,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3657,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,7 +3707,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3697,7 +3730,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3723,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,28 +3789,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3789,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,11 +3839,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3822,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3905,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3905,11 +3938,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3921,7 +3954,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3938,14 +3971,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,31 +3987,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,11 +4037,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4020,7 +4053,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4033,18 +4066,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,31 +4086,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4119,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,11 +4136,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4119,28 +4152,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4159,7 +4192,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4202,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4192,7 +4225,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4225,7 +4258,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4268,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4291,7 +4324,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4305,7 +4338,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4317,14 +4350,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,7 +4383,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4363,18 +4396,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4416,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4433,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4423,21 +4456,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4449,28 +4482,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4482,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,31 +4548,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,11 +4631,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4614,14 +4647,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,11 +4664,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4647,14 +4680,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4697,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,31 +4713,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,28 +4746,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4746,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,14 +4796,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4829,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,7 +4845,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4825,18 +4858,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,31 +4878,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,14 +4911,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4928,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,14 +4961,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,14 +4977,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,11 +4994,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4977,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,11 +5027,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5017,7 +5050,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,14 +5076,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,14 +5093,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,14 +5109,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,11 +5126,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5109,28 +5142,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5142,31 +5175,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,31 +5208,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,28 +5241,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5241,7 +5274,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5254,18 +5287,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>248</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,31 +5307,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>310</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,7 +5340,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5320,18 +5353,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,28 +5373,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5373,31 +5406,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5406,7 +5439,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5419,18 +5452,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,31 +5472,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>248</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5472,28 +5505,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5505,31 +5538,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5538,28 +5571,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5571,31 +5604,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>178</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5604,31 +5637,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5637,31 +5670,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5670,66 +5703,198 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7894.79</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>333</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>334</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>335</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>337</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>18</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>61</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>183</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>338</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>339</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>61</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>216</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>340</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>113</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>61</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>341</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>343</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>101</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>61</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>216</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8692.1900000000005</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>344</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>345</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>346</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6353,10 +6518,30 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -1043,7 +1043,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:54 PM</t>
+    <t>Saturday, 12 July, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-12_00-00.xlsx
+++ b/DaySale_2025-07-12_00-00.xlsx
@@ -113,321 +113,324 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>AROMEGA GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>ALVERINSPASM 24 S.G.CAPS.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>AROMEGA GEL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BETAPRONATE PLUS CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -461,6 +464,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -1043,7 +1055,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Saturday, 12 July, 2025 10:57 PM</t>
+    <t>Saturday, 12 July, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1866,7 +1878,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1875,7 +1887,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1892,11 +1904,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1908,7 +1920,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1941,7 +1953,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1974,7 +1986,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2179,7 +2191,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2988,7 +3000,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2997,7 +3009,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3030,7 +3042,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3084,7 +3096,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3096,7 +3108,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3169,7 +3181,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3216,10 +3228,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3426,31 +3438,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3558,7 +3570,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3571,15 +3583,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3591,7 +3603,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,11 +3719,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3789,28 +3801,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3822,7 +3834,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3835,15 +3847,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>